--- a/2021/tests/Statgrad-EGE-2021-03/data/18.xlsx
+++ b/2021/tests/Statgrad-EGE-2021-03/data/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕГЭ\2021\2021-02 ТР4\Файлы\18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE0926-1E17-4C1A-B401-AF7062923E8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,13 +38,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -62,15 +82,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -180,7 +205,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,24 +399,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239A69A1-A0AE-4177-A121-45F2207588E7}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="4.6328125" customWidth="1"/>
+    <col min="1" max="16" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>24</v>
       </c>
@@ -438,7 +465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>8</v>
       </c>
@@ -485,7 +512,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>-10</v>
       </c>
@@ -532,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>58</v>
       </c>
@@ -579,7 +606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -626,7 +653,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-30</v>
       </c>
@@ -673,7 +700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-33</v>
       </c>
@@ -720,7 +747,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -767,7 +794,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44</v>
       </c>
@@ -814,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>34</v>
       </c>
@@ -861,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>-31</v>
       </c>
@@ -908,7 +935,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>53</v>
       </c>
@@ -955,7 +982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>-28</v>
       </c>
@@ -1002,7 +1029,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>46</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>56</v>
       </c>
@@ -1094,6 +1121,936 @@
       </c>
       <c r="O15" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f>A1+MAX(A17,A16,B16)</f>
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:P17" si="0">B1+MAX(B17,B16,C16)</f>
+        <v>83</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="H17" s="2">
+        <f>G1+MAX(G17,G16,H16)</f>
+        <v>145</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" ref="B18:B31" si="1">A2+MAX(A18,A17,B17)</f>
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:C31" si="2">B2+MAX(B18,B17,C17)</f>
+        <v>72</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D31" si="3">C2+MAX(C18,C17,D17)</f>
+        <v>66</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E31" si="4">D2+MAX(D18,D17,E17)</f>
+        <v>62</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18:F31" si="5">E2+MAX(E18,E17,F17)</f>
+        <v>107</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ref="G18:H31" si="6">F2+MAX(F18,F17,G17)</f>
+        <v>123</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" ref="I18:I31" si="7">H2+MAX(H18,H17,I17)</f>
+        <v>231</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ref="J18:J31" si="8">I2+MAX(I18,I17,J17)</f>
+        <v>192</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" ref="K18:K31" si="9">J2+MAX(J18,J17,K17)</f>
+        <v>226</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" ref="L18:L31" si="10">K2+MAX(K18,K17,L17)</f>
+        <v>237</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ref="M18:M31" si="11">L2+MAX(L18,L17,M17)</f>
+        <v>218</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18:N31" si="12">M2+MAX(M18,M17,N17)</f>
+        <v>261</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ref="O18:O31" si="13">N2+MAX(N18,N17,O17)</f>
+        <v>267</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" ref="P18:P31" si="14">O2+MAX(O18,O17,P17)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" ref="H19:H31" si="15">G3+MAX(G19,G18,H18)</f>
+        <v>208</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="8"/>
+        <v>285</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="9"/>
+        <v>333</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="10"/>
+        <v>334</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="11"/>
+        <v>358</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="12"/>
+        <v>394</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="13"/>
+        <v>380</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="14"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>226</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="15"/>
+        <v>275</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="7"/>
+        <v>334</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="8"/>
+        <v>311</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="9"/>
+        <v>366</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="10"/>
+        <v>367</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="11"/>
+        <v>372</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="12"/>
+        <v>366</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="13"/>
+        <v>402</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="14"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="15"/>
+        <v>248</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="7"/>
+        <v>303</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="9"/>
+        <v>372</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="10"/>
+        <v>378</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="11"/>
+        <v>401</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="12"/>
+        <v>415</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="13"/>
+        <v>474</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="14"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="15"/>
+        <v>302</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="7"/>
+        <v>340</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="8"/>
+        <v>378</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="9"/>
+        <v>394</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="11"/>
+        <v>432</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="12"/>
+        <v>460</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="14"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="15"/>
+        <v>328</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="7"/>
+        <v>335</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="8"/>
+        <v>361</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="9"/>
+        <v>423</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="10"/>
+        <v>428</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="11"/>
+        <v>444</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="12"/>
+        <v>431</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="13"/>
+        <v>445</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="14"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="3"/>
+        <v>299</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="5"/>
+        <v>287</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="6"/>
+        <v>329</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="15"/>
+        <v>340</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="7"/>
+        <v>336</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="8"/>
+        <v>417</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="9"/>
+        <v>454</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="10"/>
+        <v>486</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="11"/>
+        <v>477</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="12"/>
+        <v>535</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="13"/>
+        <v>520</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="14"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="3"/>
+        <v>296</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="4"/>
+        <v>354</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="6"/>
+        <v>369</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="15"/>
+        <v>421</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="8"/>
+        <v>496</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="9"/>
+        <v>515</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="10"/>
+        <v>567</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="11"/>
+        <v>616</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="12"/>
+        <v>594</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="13"/>
+        <v>652</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="14"/>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="4"/>
+        <v>369</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="5"/>
+        <v>430</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="6"/>
+        <v>427</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="15"/>
+        <v>456</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="7"/>
+        <v>497</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="8"/>
+        <v>458</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="9"/>
+        <v>534</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="10"/>
+        <v>581</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="11"/>
+        <v>672</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="12"/>
+        <v>639</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="13"/>
+        <v>643</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="14"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>398</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="6"/>
+        <v>463</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="15"/>
+        <v>443</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="7"/>
+        <v>485</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="8"/>
+        <v>521</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="9"/>
+        <v>563</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="10"/>
+        <v>599</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="11"/>
+        <v>723</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="12"/>
+        <v>694</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="13"/>
+        <v>743</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="14"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="5"/>
+        <v>389</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="6"/>
+        <v>424</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="15"/>
+        <v>429</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="7"/>
+        <v>462</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="8"/>
+        <v>556</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="9"/>
+        <v>539</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="10"/>
+        <v>604</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="11"/>
+        <v>721</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="12"/>
+        <v>745</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="13"/>
+        <v>739</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="14"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="3"/>
+        <v>314</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="5"/>
+        <v>415</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="6"/>
+        <v>393</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="15"/>
+        <v>438</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="7"/>
+        <v>426</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="8"/>
+        <v>548</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="9"/>
+        <v>571</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="10"/>
+        <v>592</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="11"/>
+        <v>734</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="12"/>
+        <v>760</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="13"/>
+        <v>760</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="14"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="4"/>
+        <v>323</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>449</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="6"/>
+        <v>409</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="15"/>
+        <v>431</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="7"/>
+        <v>432</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="8"/>
+        <v>569</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="9"/>
+        <v>625</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="10"/>
+        <v>645</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="11"/>
+        <v>748</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="12"/>
+        <v>727</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="13"/>
+        <v>751</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="14"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>483</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="15"/>
+        <v>436</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="7"/>
+        <v>431</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="8"/>
+        <v>571</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="9"/>
+        <v>666</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="10"/>
+        <v>705</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="11"/>
+        <v>712</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="12"/>
+        <v>754</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="13"/>
+        <v>770</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="14"/>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
